--- a/output/fit_clients/fit_round_321.xlsx
+++ b/output/fit_clients/fit_round_321.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2406974860.386517</v>
+        <v>2010583289.952672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07047014077889067</v>
+        <v>0.1090036677928261</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03182974683538179</v>
+        <v>0.02870319820789585</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1203487480.601303</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1771943103.856009</v>
+        <v>2497627531.896422</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1696500989949589</v>
+        <v>0.1703106106539817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04466701060126724</v>
+        <v>0.03040510628246115</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>885971556.6766248</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4504131713.991307</v>
+        <v>4868591057.394017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1175379914358288</v>
+        <v>0.1509200346385797</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02829775752657605</v>
+        <v>0.02592199835342948</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>115</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2252065906.901955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,29 +564,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4031427623.227382</v>
+        <v>3060705513.305949</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08295326894269599</v>
+        <v>0.1070398150289677</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04419005282132221</v>
+        <v>0.03749352142700227</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>121</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2015713813.206114</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2765759546.178253</v>
+        <v>2547679038.158602</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1356795382262794</v>
+        <v>0.1152651165036422</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05505147688058237</v>
+        <v>0.03515268780530433</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>60</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1382879719.815905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2054823151.350086</v>
+        <v>2106004659.2552</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06852581835364059</v>
+        <v>0.09599514944600343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04907782541676684</v>
+        <v>0.03411110278885272</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1027411631.542553</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3349517203.424312</v>
+        <v>3626611126.209433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1675681068775388</v>
+        <v>0.1580288580865348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02594822539970343</v>
+        <v>0.02917904303493015</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>102</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1674758694.960499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2242134325.544183</v>
+        <v>1629983113.822077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1322723811109483</v>
+        <v>0.1200176363240564</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02468328568158343</v>
+        <v>0.0269331829220748</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1121067155.783734</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5867062868.376594</v>
+        <v>3806082995.000018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1601554830882685</v>
+        <v>0.1635180055415308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03690057926372179</v>
+        <v>0.05014903379399429</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>134</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2933531600.62623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2612845050.425237</v>
+        <v>3080591998.200604</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1609440900370777</v>
+        <v>0.1842384474091028</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03230952487665469</v>
+        <v>0.03883805914144165</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>132</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1306422441.16784</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2218497559.06342</v>
+        <v>2771753372.978589</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1342706074111376</v>
+        <v>0.1654103399720238</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05061583612528305</v>
+        <v>0.04603376173697678</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>109</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1109248725.985512</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4697444924.869967</v>
+        <v>4110329947.62095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0800465177889232</v>
+        <v>0.06702136390671373</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02830557114823964</v>
+        <v>0.02261109822911451</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>107</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2348722481.940108</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3457861067.510775</v>
+        <v>3075543701.999793</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1229408586823824</v>
+        <v>0.1653219743389051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03959641997840551</v>
+        <v>0.03161338166517931</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>102</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1728930535.037289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1590017373.717578</v>
+        <v>1136168297.3076</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06712378312897609</v>
+        <v>0.1032590797499424</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03082475852049648</v>
+        <v>0.04872995339010061</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>795008792.7779231</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2232127614.68933</v>
+        <v>2509232298.566541</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09678147526169889</v>
+        <v>0.08725997808894076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04932617041299633</v>
+        <v>0.03866679596267387</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1116063862.092759</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3373592073.183853</v>
+        <v>3551378325.165102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1508774301794605</v>
+        <v>0.1528529822934561</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04534142113180405</v>
+        <v>0.04975981815638028</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>93</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1686796102.149524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3801699639.393199</v>
+        <v>2998324842.400233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.128378277742094</v>
+        <v>0.137507165756851</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03411322972799469</v>
+        <v>0.03028532732806629</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>105</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1900849791.874593</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>888135869.7486101</v>
+        <v>1170926716.88825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1704961383136731</v>
+        <v>0.1779193450641857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02523233683233528</v>
+        <v>0.02221481982227698</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>444067936.8729998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2497879478.447344</v>
+        <v>2480839671.819025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1266802792773812</v>
+        <v>0.1388882376734697</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02828687008381188</v>
+        <v>0.02217822239521791</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1248939712.526328</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1942934502.978782</v>
+        <v>2414971367.814381</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06248549493595796</v>
+        <v>0.08655943122616873</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0326269326426539</v>
+        <v>0.04022410796477231</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>971467292.9031277</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3446937471.855565</v>
+        <v>2459128935.626052</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1281725291957254</v>
+        <v>0.1020624237982189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04077152804090443</v>
+        <v>0.05345676800671579</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>89</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1723468770.701445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1142621654.54218</v>
+        <v>1216516725.552616</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1556281774087799</v>
+        <v>0.1394291779954397</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04357387650194142</v>
+        <v>0.03962213445336722</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>571310873.4310982</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2548924924.037443</v>
+        <v>3875472064.3649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1141208338363988</v>
+        <v>0.1314645188441282</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03080918006005687</v>
+        <v>0.02866166774558646</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>93</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1274462527.58128</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1471497189.883988</v>
+        <v>1185692083.136153</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07715036524399206</v>
+        <v>0.09905907134903741</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02257560804380602</v>
+        <v>0.02934642769473909</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>735748550.4548694</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>892079131.6695572</v>
+        <v>1059404793.220764</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08834714536677309</v>
+        <v>0.07851717957778258</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02526587924421642</v>
+        <v>0.03122017245551545</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>446039511.4805248</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3422539396.342409</v>
+        <v>3354587429.655121</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1239269619246616</v>
+        <v>0.09610371137512809</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02011165508909829</v>
+        <v>0.0225249445015295</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1711269737.00999</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3626472024.753921</v>
+        <v>3308315140.870294</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1193105771322935</v>
+        <v>0.1485460872496839</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03214410427481384</v>
+        <v>0.04758854647670669</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1813236077.980355</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5071565416.870895</v>
+        <v>4699917419.910702</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1229712015088292</v>
+        <v>0.1463237889937049</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03233708728336189</v>
+        <v>0.04117188960325882</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>141</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2535782651.010439</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2008597113.666112</v>
+        <v>1765001973.371953</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1340281562703873</v>
+        <v>0.1107634822421166</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03966339015539667</v>
+        <v>0.03352884577031769</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1004298595.308682</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1191175918.178711</v>
+        <v>1117777820.59019</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08142215936199335</v>
+        <v>0.09420821197944937</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03500290914769485</v>
+        <v>0.04154013290290536</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>595587912.638746</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1449190470.030401</v>
+        <v>1742939969.507389</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1124472035002758</v>
+        <v>0.07920559827730972</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02521951403049503</v>
+        <v>0.03316791311827604</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>724595292.8447592</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2191489285.465381</v>
+        <v>2949620946.794654</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1740101400109789</v>
+        <v>0.1923103544351553</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05325795827681955</v>
+        <v>0.03826630553436913</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1095744707.203646</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1402763375.819365</v>
+        <v>1315480340.623961</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09466813719541871</v>
+        <v>0.08257770306179787</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02634930935009792</v>
+        <v>0.0254584936430417</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>701381659.7633182</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1190514630.974809</v>
+        <v>1312602021.832009</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07251150469368299</v>
+        <v>0.09076288518588596</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03079719725719792</v>
+        <v>0.02963968112088682</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>595257292.2987428</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2598246462.574273</v>
+        <v>3070014505.060961</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1259167946933089</v>
+        <v>0.1243073272109318</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02393988400246307</v>
+        <v>0.02193041884391292</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1299123245.408534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2834045072.387266</v>
+        <v>1932501992.41732</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09703948576757193</v>
+        <v>0.06796212251789818</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04018544596766058</v>
+        <v>0.04119411178360478</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>85</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1417022678.241975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1972045671.697923</v>
+        <v>1367151857.437556</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1029421399510653</v>
+        <v>0.092142095682806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03717813690410844</v>
+        <v>0.02488103924120942</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>986022818.4255717</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152459359.318974</v>
+        <v>1706490438.010174</v>
       </c>
       <c r="F39" t="n">
-        <v>0.126439150115256</v>
+        <v>0.1208491660448629</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02152138388855499</v>
+        <v>0.02245052519250455</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1076229651.050633</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1286062298.840115</v>
+        <v>1496870279.190779</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1156536705244779</v>
+        <v>0.1295403121767544</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04123999834263177</v>
+        <v>0.0522082219281015</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>643031169.1838181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1833219415.198476</v>
+        <v>2863450821.002884</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1287032568034174</v>
+        <v>0.100700905795575</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03454350430742797</v>
+        <v>0.04340460201718305</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>916609798.2000457</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3751413890.341003</v>
+        <v>3390771831.056957</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1152146548493169</v>
+        <v>0.09033962012803774</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04571980082782268</v>
+        <v>0.0306505421653636</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1875706957.325171</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1936759455.664484</v>
+        <v>2300783807.768153</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1380709182056196</v>
+        <v>0.1425705384145127</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02059792683653</v>
+        <v>0.02419044393562376</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>115</v>
-      </c>
-      <c r="J43" t="n">
-        <v>968379833.1504344</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1657118993.78434</v>
+        <v>2281574347.742538</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07420324978482083</v>
+        <v>0.1014729640727337</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02487447959336542</v>
+        <v>0.02284671241098584</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>828559534.8176584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2330320280.270175</v>
+        <v>2243204946.209435</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1477759727429796</v>
+        <v>0.1693872138547378</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04737204416614964</v>
+        <v>0.04760426621358697</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1165160164.335563</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5606172759.110127</v>
+        <v>3987902333.773127</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1666887888335063</v>
+        <v>0.1190575991120834</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0553888252004815</v>
+        <v>0.03720507704421688</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>114</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2803086441.049342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3186610562.900717</v>
+        <v>4195028447.52992</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1690085812258923</v>
+        <v>0.1335433012173183</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04676978374529278</v>
+        <v>0.04130271651756202</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>86</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1593305234.494029</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4096497826.745003</v>
+        <v>3564286832.856333</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1021374335342681</v>
+        <v>0.07996030373774188</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02668272546001318</v>
+        <v>0.03808566484090695</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2048248942.138233</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1696755359.738556</v>
+        <v>1209224804.185071</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528222489344809</v>
+        <v>0.1256785676383059</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03068076708257208</v>
+        <v>0.02864132078635661</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>848377681.316471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3048260658.937161</v>
+        <v>3667888949.829295</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1713444820550217</v>
+        <v>0.1344544123784746</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03387270418352351</v>
+        <v>0.05231442415761235</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>109</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1524130385.863743</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1369976357.556253</v>
+        <v>1364527741.114843</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1384955501403294</v>
+        <v>0.1649582435657613</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03901507420772345</v>
+        <v>0.03613085867333042</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>684988202.7918959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3932387994.998902</v>
+        <v>4603634792.382482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1333304493854332</v>
+        <v>0.087812954226014</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05687878389256257</v>
+        <v>0.04732090638996703</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>132</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1966194057.964716</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2524260364.781929</v>
+        <v>2290281847.68934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1717123284004264</v>
+        <v>0.2043563778356696</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02378180703424207</v>
+        <v>0.02470874701839806</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1262130247.699037</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3867181186.79543</v>
+        <v>3147451442.663228</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1340547901042223</v>
+        <v>0.1532293601377182</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04808627847238153</v>
+        <v>0.05226551056467662</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1933590647.053153</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3594024367.535294</v>
+        <v>3345678941.637322</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1844746254637466</v>
+        <v>0.173310123691874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02351518016138509</v>
+        <v>0.03223120497118335</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1797012140.765491</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1699743795.731997</v>
+        <v>1713404901.602636</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1605372782662317</v>
+        <v>0.1487861575176309</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04090633142365372</v>
+        <v>0.03804711513336736</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>849871910.5286239</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4560778255.734808</v>
+        <v>3056741390.591984</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1722657553727412</v>
+        <v>0.1719651098719817</v>
       </c>
       <c r="G57" t="n">
-        <v>0.017293281662541</v>
+        <v>0.02586481720666205</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>101</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2280389263.327567</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1573780461.697761</v>
+        <v>1260447852.703129</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1902076252880177</v>
+        <v>0.1827248779875951</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02656490947930166</v>
+        <v>0.03217342855025523</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>786890255.2519122</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3857362438.980033</v>
+        <v>3600826715.997661</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09364939330439719</v>
+        <v>0.1066250199942955</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0314134325604038</v>
+        <v>0.04570989590550078</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>89</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1928681202.32165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2422842477.296857</v>
+        <v>3069714817.399556</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1312004141997892</v>
+        <v>0.1268658951953653</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02864171575212482</v>
+        <v>0.02327410163517287</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1211421248.462268</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2200606663.395837</v>
+        <v>3060450465.298286</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1086976775250081</v>
+        <v>0.1096751193497947</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02138825686297843</v>
+        <v>0.02327453094605483</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>110</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1100303387.559725</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1437560557.164318</v>
+        <v>1976414783.922673</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1770231058554542</v>
+        <v>0.1948304721927494</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03021122128083841</v>
+        <v>0.03956835638824334</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>718780252.2966342</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5331911287.741252</v>
+        <v>5508253489.271311</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07838161120477116</v>
+        <v>0.07933627130380745</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04055744687330238</v>
+        <v>0.04661174292392806</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2665955646.819453</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5454362751.341918</v>
+        <v>4530905404.409106</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1750774976039493</v>
+        <v>0.1817832609868721</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03079818629763301</v>
+        <v>0.02759700015667313</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>99</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2727181513.821682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4905816502.352133</v>
+        <v>4584833326.834624</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1729769964194439</v>
+        <v>0.1691152965260507</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02282854030914729</v>
+        <v>0.02992071272266041</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>115</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2452908215.715814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3472499678.939816</v>
+        <v>3823090826.265347</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1548146778141813</v>
+        <v>0.1063639647527438</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04659931427245268</v>
+        <v>0.04954859100219475</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>94</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1736249784.766853</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2359021597.507052</v>
+        <v>2986941730.138443</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08199684420416618</v>
+        <v>0.06274387923454094</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04897673902001467</v>
+        <v>0.04193683289134814</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>102</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1179510871.256707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6028327077.590095</v>
+        <v>5671407102.789212</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1155964416891879</v>
+        <v>0.129532256589987</v>
       </c>
       <c r="G68" t="n">
-        <v>0.041793669934413</v>
+        <v>0.03517920447822858</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3014163657.501629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2364918990.038538</v>
+        <v>1738225219.473571</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1386054316008521</v>
+        <v>0.1439435475687742</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0533533492645945</v>
+        <v>0.05372823068725997</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1182459547.14117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3732579631.559321</v>
+        <v>2331106960.545369</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06761309454357148</v>
+        <v>0.07106289334756684</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03317933932112559</v>
+        <v>0.03034323819398839</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>91</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1866289840.409376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4086456469.57799</v>
+        <v>5105446327.67571</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1414406646324426</v>
+        <v>0.1202505832234105</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03108828060061418</v>
+        <v>0.02427860471935318</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>116</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2043228272.28313</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2175206953.38315</v>
+        <v>1533464854.015269</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0800021312694239</v>
+        <v>0.1079303554421499</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05222455354266593</v>
+        <v>0.03615873448703755</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1087603394.792837</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2917514150.911802</v>
+        <v>2194166493.638681</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1098922325636106</v>
+        <v>0.07900175063200325</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03472232990972707</v>
+        <v>0.03823435844336844</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>122</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1458757078.993128</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2889177395.18834</v>
+        <v>3398119252.803608</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1763446070409381</v>
+        <v>0.1550904398280672</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02855358284227053</v>
+        <v>0.02928919811689522</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>109</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1444588772.59959</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1779312166.222119</v>
+        <v>2272468606.597691</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1552391413814414</v>
+        <v>0.1314020428298931</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02431915305197853</v>
+        <v>0.02714820930911222</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>889656067.9903392</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3872878087.507373</v>
+        <v>4752147773.810822</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09418117122958317</v>
+        <v>0.08644550856863176</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03231730787301156</v>
+        <v>0.02734218339193669</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1936439023.161031</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2286745306.529258</v>
+        <v>1632365507.439997</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1682723384054885</v>
+        <v>0.1486712727909435</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02715023020894757</v>
+        <v>0.01948281151346671</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1143372757.134167</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3214267405.414257</v>
+        <v>3219535132.738717</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08433739469702412</v>
+        <v>0.08645019586088717</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05228480568157139</v>
+        <v>0.03643774653253672</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>111</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1607133724.670059</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1879745922.855828</v>
+        <v>1707751908.933717</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1100536931535449</v>
+        <v>0.1608545040166181</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03647538675303815</v>
+        <v>0.03952318423468205</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>939873062.0329424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4115596776.959966</v>
+        <v>3696402123.552419</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08323360061614056</v>
+        <v>0.1055599900874484</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03520672847721708</v>
+        <v>0.02943879165284916</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2057798393.692745</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5144808444.140856</v>
+        <v>3867445911.048062</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1080655746719151</v>
+        <v>0.1249902759534668</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02259298141838107</v>
+        <v>0.0305148155732247</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2572404227.793381</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5621708244.586675</v>
+        <v>5434667956.782938</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1796514058395194</v>
+        <v>0.2051898081586533</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02328730276491227</v>
+        <v>0.02076643740142293</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2810854071.549421</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1655039587.095145</v>
+        <v>1850781423.620566</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1406695240978776</v>
+        <v>0.1028582329711903</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03962674053005839</v>
+        <v>0.03954813719239721</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>827519735.9468359</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1755226686.078692</v>
+        <v>2138619036.509715</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07389062973974002</v>
+        <v>0.1099544568730547</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04955421470392006</v>
+        <v>0.05095513100383793</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>877613383.8735024</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3215660138.209802</v>
+        <v>2762433819.416047</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1537532948154142</v>
+        <v>0.1563250646702895</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04428394295280533</v>
+        <v>0.04964278476337393</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>121</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1607830153.091356</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2437707681.441953</v>
+        <v>1768465613.217854</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1614623082843847</v>
+        <v>0.1288500923788227</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02436647923789504</v>
+        <v>0.02140330253123195</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1218853929.217364</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1280290374.279092</v>
+        <v>1452223048.734133</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1422736904837673</v>
+        <v>0.161763610644295</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04090412558567708</v>
+        <v>0.02802426066750624</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>640145263.3036282</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2528889395.403897</v>
+        <v>3145472996.881927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.108327223521641</v>
+        <v>0.150493455863161</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03987639634671955</v>
+        <v>0.03857787802636251</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>127</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1264444681.600866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3326796020.378119</v>
+        <v>2918929770.590263</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1335855471922055</v>
+        <v>0.1170871911030316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03745986741873027</v>
+        <v>0.03746108027249363</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>108</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1663398024.34915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2102375268.226389</v>
+        <v>1928996482.944568</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1355884864585526</v>
+        <v>0.118008522125748</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03542245716044581</v>
+        <v>0.05347821868358762</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1051187723.085195</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1504890806.29678</v>
+        <v>1602291373.47291</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1900577238781589</v>
+        <v>0.1487317902572134</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03964612449584302</v>
+        <v>0.05937228379524511</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>752445441.4083515</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2574912982.396758</v>
+        <v>2740901103.18766</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09516167890131461</v>
+        <v>0.1032908106231535</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03279485774641475</v>
+        <v>0.04416233295916077</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>86</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1287456480.821342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4059509671.098709</v>
+        <v>3389369539.717656</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1410436725375556</v>
+        <v>0.1418830265637149</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03301159574480901</v>
+        <v>0.05111674053517425</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>101</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2029754832.305502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1586048638.647139</v>
+        <v>2064275920.70703</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1078608686843635</v>
+        <v>0.1467491336931784</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03230296818473537</v>
+        <v>0.03040047024748838</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>793024263.7824804</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2737181387.733327</v>
+        <v>2074957409.771481</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1291525199619702</v>
+        <v>0.1289004033141156</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03216278708684523</v>
+        <v>0.04314633322598659</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1368590712.718808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2144222333.042719</v>
+        <v>2154192381.513437</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1225345359804712</v>
+        <v>0.139610410378095</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03047665317817606</v>
+        <v>0.03062447887801843</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1072111138.102619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5341256929.557514</v>
+        <v>4298357715.676624</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1740868253874229</v>
+        <v>0.1723717403503745</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01766777108340498</v>
+        <v>0.02089629178162328</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2670628629.032445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2935876214.351554</v>
+        <v>2901451053.70187</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0991308560332365</v>
+        <v>0.1182203898502208</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02231235516292428</v>
+        <v>0.02212072135823229</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1467938087.555801</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3077838127.523098</v>
+        <v>2130783491.994933</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1384478804740974</v>
+        <v>0.1450105371199813</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02399612058915774</v>
+        <v>0.03432225635216701</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1538919055.329802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3216154123.45019</v>
+        <v>3229464737.487261</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1500881173488193</v>
+        <v>0.1553276587356278</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02156447420849278</v>
+        <v>0.01862161762303877</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1608077069.831237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2538353362.492567</v>
+        <v>2801934077.415087</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1980022696294439</v>
+        <v>0.1367495394877807</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04331660551697134</v>
+        <v>0.03767926616647253</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>128</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1269176709.342892</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_321.xlsx
+++ b/output/fit_clients/fit_round_321.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2010583289.952672</v>
+        <v>1718790240.611583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1090036677928261</v>
+        <v>0.0992312591851056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02870319820789585</v>
+        <v>0.03275771806881324</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2497627531.896422</v>
+        <v>2351366569.436911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703106106539817</v>
+        <v>0.1419437646659682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03040510628246115</v>
+        <v>0.03200909040483711</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4868591057.394017</v>
+        <v>3206797324.999269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1509200346385797</v>
+        <v>0.1403715735686973</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02592199835342948</v>
+        <v>0.03575922056628951</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3060705513.305949</v>
+        <v>2718157348.311686</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070398150289677</v>
+        <v>0.1007399725954132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03749352142700227</v>
+        <v>0.03939617437006337</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2547679038.158602</v>
+        <v>2121674598.592907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1152651165036422</v>
+        <v>0.1402212621795264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03515268780530433</v>
+        <v>0.03554862569181176</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2106004659.2552</v>
+        <v>2015910370.524088</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09599514944600343</v>
+        <v>0.09664316968041174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03411110278885272</v>
+        <v>0.03447911532453289</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3626611126.209433</v>
+        <v>2744151826.241999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1580288580865348</v>
+        <v>0.1617617211252718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02917904303493015</v>
+        <v>0.0250301677162195</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1629983113.822077</v>
+        <v>2200584490.742939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1200176363240564</v>
+        <v>0.1987865664548223</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0269331829220748</v>
+        <v>0.03310771653423863</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3806082995.000018</v>
+        <v>4991134926.145156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1635180055415308</v>
+        <v>0.1520276780723869</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05014903379399429</v>
+        <v>0.03587331146886051</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3080591998.200604</v>
+        <v>3004405902.819836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1842384474091028</v>
+        <v>0.1813733258630889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03883805914144165</v>
+        <v>0.04981412403242093</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2771753372.978589</v>
+        <v>2222342837.507123</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1654103399720238</v>
+        <v>0.165542385969012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04603376173697678</v>
+        <v>0.04187400323740902</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4110329947.62095</v>
+        <v>4077848019.492952</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06702136390671373</v>
+        <v>0.09882044022486913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02261109822911451</v>
+        <v>0.02210768577750963</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3075543701.999793</v>
+        <v>3575978841.236774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1653219743389051</v>
+        <v>0.1139605174762823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03161338166517931</v>
+        <v>0.03614163922219973</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1136168297.3076</v>
+        <v>1446311909.025378</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1032590797499424</v>
+        <v>0.09624354372850284</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04872995339010061</v>
+        <v>0.04333058357691835</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2509232298.566541</v>
+        <v>1945453434.332376</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08725997808894076</v>
+        <v>0.09015751888468471</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03866679596267387</v>
+        <v>0.03162989327686965</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3551378325.165102</v>
+        <v>3235943554.425433</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1528529822934561</v>
+        <v>0.1216659081523012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04975981815638028</v>
+        <v>0.04089534358734853</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2998324842.400233</v>
+        <v>2885828425.195618</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137507165756851</v>
+        <v>0.1378093075465845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03028532732806629</v>
+        <v>0.02481871762603444</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1170926716.88825</v>
+        <v>1240496079.970579</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1779193450641857</v>
+        <v>0.1353149537252863</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02221481982227698</v>
+        <v>0.02028873856027174</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2480839671.819025</v>
+        <v>2750956394.277018</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1388882376734697</v>
+        <v>0.1028313293259506</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02217822239521791</v>
+        <v>0.02278609821860156</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2414971367.814381</v>
+        <v>2559948064.3238</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08655943122616873</v>
+        <v>0.06729260438877041</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04022410796477231</v>
+        <v>0.04188937891044752</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2459128935.626052</v>
+        <v>3775791861.154106</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1020624237982189</v>
+        <v>0.1068942575393715</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05345676800671579</v>
+        <v>0.04786252173512896</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1216516725.552616</v>
+        <v>1361492425.32611</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1394291779954397</v>
+        <v>0.1274072908447468</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03962213445336722</v>
+        <v>0.04091180491269308</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3875472064.3649</v>
+        <v>2629398210.543275</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1314645188441282</v>
+        <v>0.1067765315074495</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02866166774558646</v>
+        <v>0.03615368645460396</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1185692083.136153</v>
+        <v>1459582574.096265</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09905907134903741</v>
+        <v>0.09369867543340664</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02934642769473909</v>
+        <v>0.02577246142502952</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1059404793.220764</v>
+        <v>1140357686.043955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07851717957778258</v>
+        <v>0.08570266298569323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03122017245551545</v>
+        <v>0.03060803246708048</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3354587429.655121</v>
+        <v>3784519594.105537</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09610371137512809</v>
+        <v>0.1381233898739438</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0225249445015295</v>
+        <v>0.02075262763029202</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3308315140.870294</v>
+        <v>2386129589.373256</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1485460872496839</v>
+        <v>0.1363879479000822</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04758854647670669</v>
+        <v>0.03258940311307749</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4699917419.910702</v>
+        <v>4103230945.35817</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1463237889937049</v>
+        <v>0.09373068812914088</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04117188960325882</v>
+        <v>0.045867380407021</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1765001973.371953</v>
+        <v>2311412957.341281</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1107634822421166</v>
+        <v>0.1129547062701892</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03352884577031769</v>
+        <v>0.03451502549920361</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1117777820.59019</v>
+        <v>1376084405.585998</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09420821197944937</v>
+        <v>0.09108075761029392</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04154013290290536</v>
+        <v>0.03277123175000624</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1742939969.507389</v>
+        <v>1471211711.089869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07920559827730972</v>
+        <v>0.1089716055287134</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03316791311827604</v>
+        <v>0.02500011032910738</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2949620946.794654</v>
+        <v>2697091043.860417</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1923103544351553</v>
+        <v>0.1548410611767412</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03826630553436913</v>
+        <v>0.04436998837347345</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1315480340.623961</v>
+        <v>1153315232.341361</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08257770306179787</v>
+        <v>0.08182256882231509</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0254584936430417</v>
+        <v>0.02035582030092132</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1312602021.832009</v>
+        <v>1116274380.017004</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09076288518588596</v>
+        <v>0.0741068084136242</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02963968112088682</v>
+        <v>0.04296748014725985</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3070014505.060961</v>
+        <v>2213280988.919817</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1243073272109318</v>
+        <v>0.1236616086535591</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02193041884391292</v>
+        <v>0.02755832920457918</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1932501992.41732</v>
+        <v>1912167261.093045</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06796212251789818</v>
+        <v>0.1044250132477826</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04119411178360478</v>
+        <v>0.04023935636792191</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1367151857.437556</v>
+        <v>1477015139.973545</v>
       </c>
       <c r="F38" t="n">
-        <v>0.092142095682806</v>
+        <v>0.08868503058107539</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02488103924120942</v>
+        <v>0.02593053051290944</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1706490438.010174</v>
+        <v>2058280785.250109</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1208491660448629</v>
+        <v>0.1571154766542774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02245052519250455</v>
+        <v>0.02755843935975298</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1496870279.190779</v>
+        <v>1350660064.643616</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1295403121767544</v>
+        <v>0.1035900309088515</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0522082219281015</v>
+        <v>0.05282963129532178</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2863450821.002884</v>
+        <v>2391720645.550399</v>
       </c>
       <c r="F41" t="n">
-        <v>0.100700905795575</v>
+        <v>0.1140670056597768</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04340460201718305</v>
+        <v>0.04157693394172766</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3390771831.056957</v>
+        <v>2830186486.493918</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09033962012803774</v>
+        <v>0.110334881395571</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0306505421653636</v>
+        <v>0.03621142722086344</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2300783807.768153</v>
+        <v>2852585098.19172</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1425705384145127</v>
+        <v>0.2015637168154624</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02419044393562376</v>
+        <v>0.01750257748309487</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2281574347.742538</v>
+        <v>1792131179.241956</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1014729640727337</v>
+        <v>0.08173349034717012</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02284671241098584</v>
+        <v>0.03715360028411171</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2243204946.209435</v>
+        <v>2481331620.522306</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1693872138547378</v>
+        <v>0.1925669823320226</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04760426621358697</v>
+        <v>0.03423130379835141</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3987902333.773127</v>
+        <v>5307995226.945326</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1190575991120834</v>
+        <v>0.1495183864690811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03720507704421688</v>
+        <v>0.05822797358118203</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4195028447.52992</v>
+        <v>3990082684.245176</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1335433012173183</v>
+        <v>0.1339261592132976</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04130271651756202</v>
+        <v>0.04908005319168521</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3564286832.856333</v>
+        <v>4273551588.04924</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07996030373774188</v>
+        <v>0.07143338348129387</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03808566484090695</v>
+        <v>0.0260554176553054</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1209224804.185071</v>
+        <v>1745700242.249379</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1256785676383059</v>
+        <v>0.1741172411968107</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02864132078635661</v>
+        <v>0.03878110514155349</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3667888949.829295</v>
+        <v>2577048515.642632</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1344544123784746</v>
+        <v>0.1346553288274354</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05231442415761235</v>
+        <v>0.04532032358917421</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1364527741.114843</v>
+        <v>1484487083.734045</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1649582435657613</v>
+        <v>0.1693672888268387</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03613085867333042</v>
+        <v>0.05296569911099484</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4603634792.382482</v>
+        <v>4810726193.578567</v>
       </c>
       <c r="F52" t="n">
-        <v>0.087812954226014</v>
+        <v>0.1386542635997153</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04732090638996703</v>
+        <v>0.04801821058454394</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2290281847.68934</v>
+        <v>2728281004.575849</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2043563778356696</v>
+        <v>0.1816829468449714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02470874701839806</v>
+        <v>0.02641530077869325</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3147451442.663228</v>
+        <v>3425498546.953046</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1532293601377182</v>
+        <v>0.1456907521013532</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05226551056467662</v>
+        <v>0.04219559835315809</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3345678941.637322</v>
+        <v>3780339056.216018</v>
       </c>
       <c r="F55" t="n">
-        <v>0.173310123691874</v>
+        <v>0.1955797579396611</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03223120497118335</v>
+        <v>0.02110914243822905</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1713404901.602636</v>
+        <v>1647851115.577499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1487861575176309</v>
+        <v>0.1362032088495226</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03804711513336736</v>
+        <v>0.03926142812837749</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3056741390.591984</v>
+        <v>2860175307.257354</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1719651098719817</v>
+        <v>0.1121683011984788</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02586481720666205</v>
+        <v>0.02503717767001175</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1260447852.703129</v>
+        <v>1874008768.878371</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1827248779875951</v>
+        <v>0.1293994142140482</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03217342855025523</v>
+        <v>0.0305133252729381</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3600826715.997661</v>
+        <v>3637612483.782037</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1066250199942955</v>
+        <v>0.1129199445175865</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04570989590550078</v>
+        <v>0.03810709513827666</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3069714817.399556</v>
+        <v>2652569975.306894</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1268658951953653</v>
+        <v>0.181657926564929</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02327410163517287</v>
+        <v>0.02228440372595158</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3060450465.298286</v>
+        <v>2515511443.541103</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1096751193497947</v>
+        <v>0.113318797732051</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02327453094605483</v>
+        <v>0.02998763890983058</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1976414783.922673</v>
+        <v>2101372709.184778</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1948304721927494</v>
+        <v>0.1173811027003482</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03956835638824334</v>
+        <v>0.04521540787427471</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5508253489.271311</v>
+        <v>5036714103.319092</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07933627130380745</v>
+        <v>0.1041322614562632</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04661174292392806</v>
+        <v>0.04530578408479156</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4530905404.409106</v>
+        <v>4624708145.724188</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1817832609868721</v>
+        <v>0.1392125710386474</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02759700015667313</v>
+        <v>0.03244490205687037</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4584833326.834624</v>
+        <v>5674479905.904721</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1691152965260507</v>
+        <v>0.1435995251129924</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02992071272266041</v>
+        <v>0.02035402995538477</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3823090826.265347</v>
+        <v>4484715835.752676</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1063639647527438</v>
+        <v>0.141183457086972</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04954859100219475</v>
+        <v>0.04840191848660376</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2986941730.138443</v>
+        <v>2143313670.05266</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06274387923454094</v>
+        <v>0.08562577160355855</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04193683289134814</v>
+        <v>0.04047413707408323</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5671407102.789212</v>
+        <v>4742447857.620924</v>
       </c>
       <c r="F68" t="n">
-        <v>0.129532256589987</v>
+        <v>0.1028327759334597</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03517920447822858</v>
+        <v>0.03708214810826331</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1738225219.473571</v>
+        <v>1579303809.390447</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1439435475687742</v>
+        <v>0.1516665526368665</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05372823068725997</v>
+        <v>0.04421698482548365</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2331106960.545369</v>
+        <v>3223753979.825621</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07106289334756684</v>
+        <v>0.1019238926211699</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03034323819398839</v>
+        <v>0.03033832338664082</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5105446327.67571</v>
+        <v>5094242861.920017</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1202505832234105</v>
+        <v>0.1370923233793367</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02427860471935318</v>
+        <v>0.02566391476642181</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1533464854.015269</v>
+        <v>1796714354.060922</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1079303554421499</v>
+        <v>0.09118136654273828</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03615873448703755</v>
+        <v>0.0422419237135206</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2194166493.638681</v>
+        <v>3088413137.097383</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07900175063200325</v>
+        <v>0.1043819574808695</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03823435844336844</v>
+        <v>0.03738057785726861</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3398119252.803608</v>
+        <v>2921303647.482529</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1550904398280672</v>
+        <v>0.1690667723862938</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02928919811689522</v>
+        <v>0.02640273287067439</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2272468606.597691</v>
+        <v>1545703226.361887</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1314020428298931</v>
+        <v>0.1031758386970597</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02714820930911222</v>
+        <v>0.02411058667838603</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4752147773.810822</v>
+        <v>4617016258.017438</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08644550856863176</v>
+        <v>0.08179084265035594</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02734218339193669</v>
+        <v>0.03080822811268034</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1632365507.439997</v>
+        <v>1671540033.407851</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1486712727909435</v>
+        <v>0.1814200515815529</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01948281151346671</v>
+        <v>0.02945072660659979</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3219535132.738717</v>
+        <v>3770208124.883774</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08645019586088717</v>
+        <v>0.1067305046610432</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03643774653253672</v>
+        <v>0.04139747959825719</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1707751908.933717</v>
+        <v>1820339938.068881</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1608545040166181</v>
+        <v>0.1524470595865921</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03952318423468205</v>
+        <v>0.03046400601892216</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3696402123.552419</v>
+        <v>5361648438.217718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1055599900874484</v>
+        <v>0.08333838358006945</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02943879165284916</v>
+        <v>0.03354376062077808</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3867445911.048062</v>
+        <v>3720609705.391497</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1249902759534668</v>
+        <v>0.09444391712883868</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0305148155732247</v>
+        <v>0.02832200745279163</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5434667956.782938</v>
+        <v>3825510569.576474</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2051898081586533</v>
+        <v>0.2102237045888237</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02076643740142293</v>
+        <v>0.02367109906038753</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1850781423.620566</v>
+        <v>1854352921.135633</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1028582329711903</v>
+        <v>0.1209849696959459</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03954813719239721</v>
+        <v>0.04252239171472677</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2138619036.509715</v>
+        <v>2243514395.587924</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1099544568730547</v>
+        <v>0.09329807167200219</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05095513100383793</v>
+        <v>0.03797859024431451</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2762433819.416047</v>
+        <v>2439706737.985687</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1563250646702895</v>
+        <v>0.1551947026749873</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04964278476337393</v>
+        <v>0.03544213517967869</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1768465613.217854</v>
+        <v>2013904369.598801</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1288500923788227</v>
+        <v>0.1728810524915958</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02140330253123195</v>
+        <v>0.01981281413705361</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1452223048.734133</v>
+        <v>910987982.9489955</v>
       </c>
       <c r="F87" t="n">
-        <v>0.161763610644295</v>
+        <v>0.1617772631271664</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02802426066750624</v>
+        <v>0.03473110631285599</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3145472996.881927</v>
+        <v>2406507596.684879</v>
       </c>
       <c r="F88" t="n">
-        <v>0.150493455863161</v>
+        <v>0.1329877803877357</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03857787802636251</v>
+        <v>0.03755452896553318</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2918929770.590263</v>
+        <v>2456576875.399155</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1170871911030316</v>
+        <v>0.1289865990030305</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03746108027249363</v>
+        <v>0.03499468510440986</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1928996482.944568</v>
+        <v>1933941444.474993</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118008522125748</v>
+        <v>0.1116247106530645</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05347821868358762</v>
+        <v>0.04710433859386707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1602291373.47291</v>
+        <v>1926864679.593145</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1487317902572134</v>
+        <v>0.1808601817976633</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05937228379524511</v>
+        <v>0.04692936613431347</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2740901103.18766</v>
+        <v>2128032384.440744</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1032908106231535</v>
+        <v>0.08092031686704979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04416233295916077</v>
+        <v>0.04139995215488999</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3389369539.717656</v>
+        <v>3603722613.162028</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1418830265637149</v>
+        <v>0.1122414707499192</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05111674053517425</v>
+        <v>0.05363476528470675</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2064275920.70703</v>
+        <v>2058100055.023048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1467491336931784</v>
+        <v>0.1016559446375732</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03040047024748838</v>
+        <v>0.0312068815130358</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2074957409.771481</v>
+        <v>3095897922.012252</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1289004033141156</v>
+        <v>0.1063535775729493</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04314633322598659</v>
+        <v>0.04395518497887058</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2154192381.513437</v>
+        <v>2395563053.521557</v>
       </c>
       <c r="F96" t="n">
-        <v>0.139610410378095</v>
+        <v>0.1405737272251724</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03062447887801843</v>
+        <v>0.03493400670696099</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4298357715.676624</v>
+        <v>5172059073.447062</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1723717403503745</v>
+        <v>0.1766179830444525</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02089629178162328</v>
+        <v>0.02260352326062857</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2901451053.70187</v>
+        <v>2505740155.843833</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1182203898502208</v>
+        <v>0.1122562533081551</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02212072135823229</v>
+        <v>0.02469149941893262</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2130783491.994933</v>
+        <v>2575119022.226583</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1450105371199813</v>
+        <v>0.135672058217122</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03432225635216701</v>
+        <v>0.03440359535748323</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3229464737.487261</v>
+        <v>3825128594.875121</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1553276587356278</v>
+        <v>0.1102470618291226</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01862161762303877</v>
+        <v>0.02083099091264605</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2801934077.415087</v>
+        <v>3300660263.971941</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1367495394877807</v>
+        <v>0.1577717895349184</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03767926616647253</v>
+        <v>0.03909696513297724</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_321.xlsx
+++ b/output/fit_clients/fit_round_321.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1718790240.611583</v>
+        <v>1601870442.07666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0992312591851056</v>
+        <v>0.09153675750849256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03275771806881324</v>
+        <v>0.03389356258640673</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2351366569.436911</v>
+        <v>2316093423.149531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1419437646659682</v>
+        <v>0.1420173335794922</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03200909040483711</v>
+        <v>0.03808748969244926</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3206797324.999269</v>
+        <v>3871675033.415875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1403715735686973</v>
+        <v>0.1295414928437142</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03575922056628951</v>
+        <v>0.03692049985990999</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>321</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2718157348.311686</v>
+        <v>3700382366.858064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1007399725954132</v>
+        <v>0.09817740564959805</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03939617437006337</v>
+        <v>0.03587532580010427</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>128</v>
+      </c>
+      <c r="J5" t="n">
+        <v>321</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77.31455575901208</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2121674598.592907</v>
+        <v>2390745655.86903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1402212621795264</v>
+        <v>0.1457235251795651</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03554862569181176</v>
+        <v>0.04043686286226038</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2015910370.524088</v>
+        <v>2281691916.689577</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09664316968041174</v>
+        <v>0.06160550513845563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03447911532453289</v>
+        <v>0.0478480986822287</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2744151826.241999</v>
+        <v>3173702520.729494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1617617211252718</v>
+        <v>0.1943961365780867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0250301677162195</v>
+        <v>0.02735744812615975</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>320</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52.71510399581534</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2200584490.742939</v>
+        <v>2126660590.809179</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1987865664548223</v>
+        <v>0.1781239524779608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03310771653423863</v>
+        <v>0.02578770434022995</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4991134926.145156</v>
+        <v>3928331426.53162</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1520276780723869</v>
+        <v>0.1870098908572083</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03587331146886051</v>
+        <v>0.0499164319950229</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>279</v>
+      </c>
+      <c r="J10" t="n">
+        <v>321</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3004405902.819836</v>
+        <v>2673319037.996598</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1813733258630889</v>
+        <v>0.1425564542542269</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04981412403242093</v>
+        <v>0.04366929551405731</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>131</v>
+      </c>
+      <c r="J11" t="n">
+        <v>320</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36.40788429608778</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2222342837.507123</v>
+        <v>2902967620.720219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.165542385969012</v>
+        <v>0.1811587719058439</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04187400323740902</v>
+        <v>0.04282621295972761</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4077848019.492952</v>
+        <v>5201141824.628894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09882044022486913</v>
+        <v>0.09681771771981315</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02210768577750963</v>
+        <v>0.02724076130189809</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>166</v>
+      </c>
+      <c r="J13" t="n">
+        <v>320</v>
+      </c>
+      <c r="K13" t="n">
+        <v>73.97346368100243</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3575978841.236774</v>
+        <v>2351005598.313432</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1139605174762823</v>
+        <v>0.1448803454066341</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03614163922219973</v>
+        <v>0.0353507313815031</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1446311909.025378</v>
+        <v>1845197837.07545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09624354372850284</v>
+        <v>0.1068037990488027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04333058357691835</v>
+        <v>0.03194847241003139</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1945453434.332376</v>
+        <v>2706030848.809289</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09015751888468471</v>
+        <v>0.08541392598956959</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03162989327686965</v>
+        <v>0.03563546281885684</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3235943554.425433</v>
+        <v>4472015995.791595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1216659081523012</v>
+        <v>0.1267736474212492</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04089534358734853</v>
+        <v>0.0480741973929748</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>151</v>
+      </c>
+      <c r="J17" t="n">
+        <v>320</v>
+      </c>
+      <c r="K17" t="n">
+        <v>74.23920384975087</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2885828425.195618</v>
+        <v>3728875469.288084</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1378093075465845</v>
+        <v>0.1117327185653598</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02481871762603444</v>
+        <v>0.02297864249118533</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>79</v>
+      </c>
+      <c r="J18" t="n">
+        <v>321</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1240496079.970579</v>
+        <v>1163137913.181516</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1353149537252863</v>
+        <v>0.1387060109122226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02028873856027174</v>
+        <v>0.02049207426213352</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2750956394.277018</v>
+        <v>1706441980.878435</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1028313293259506</v>
+        <v>0.1356637708689068</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02278609821860156</v>
+        <v>0.02830619881315262</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2559948064.3238</v>
+        <v>2731565577.712722</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06729260438877041</v>
+        <v>0.07415418543017954</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04188937891044752</v>
+        <v>0.03639116799526085</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3775791861.154106</v>
+        <v>3327218597.494436</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1068942575393715</v>
+        <v>0.1342795528210916</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04786252173512896</v>
+        <v>0.04435151071920163</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>319</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1361492425.32611</v>
+        <v>1390297567.915487</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1274072908447468</v>
+        <v>0.1572887156326857</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04091180491269308</v>
+        <v>0.03798360989046196</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2629398210.543275</v>
+        <v>2958801184.580553</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1067765315074495</v>
+        <v>0.1098917910425227</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03615368645460396</v>
+        <v>0.03381216903722002</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>316</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459582574.096265</v>
+        <v>1048604867.11216</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09369867543340664</v>
+        <v>0.09646111130782467</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02577246142502952</v>
+        <v>0.02469365442457145</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1140357686.043955</v>
+        <v>1149537978.451944</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08570266298569323</v>
+        <v>0.08036443693712832</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03060803246708048</v>
+        <v>0.02943377290695864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3784519594.105537</v>
+        <v>4189154998.191258</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1381233898739438</v>
+        <v>0.1419390477292323</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02075262763029202</v>
+        <v>0.02239323895722148</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>133</v>
+      </c>
+      <c r="J27" t="n">
+        <v>320</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.2130083143329</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2386129589.373256</v>
+        <v>3672782386.46771</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1363879479000822</v>
+        <v>0.1115728003791164</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03258940311307749</v>
+        <v>0.03110340573327191</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>69</v>
+      </c>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4103230945.35817</v>
+        <v>5217905820.951939</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09373068812914088</v>
+        <v>0.1270706655147408</v>
       </c>
       <c r="G29" t="n">
-        <v>0.045867380407021</v>
+        <v>0.033198957163643</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>296</v>
+      </c>
+      <c r="J29" t="n">
+        <v>320</v>
+      </c>
+      <c r="K29" t="n">
+        <v>75.27598578929526</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2311412957.341281</v>
+        <v>1546813521.765037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129547062701892</v>
+        <v>0.1150510277318583</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03451502549920361</v>
+        <v>0.02986037514002893</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1376084405.585998</v>
+        <v>1425019977.944257</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09108075761029392</v>
+        <v>0.09912693391804725</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03277123175000624</v>
+        <v>0.03710766889356996</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1471211711.089869</v>
+        <v>1666364711.114782</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1089716055287134</v>
+        <v>0.1159497985646843</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02500011032910738</v>
+        <v>0.02964443329135355</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2697091043.860417</v>
+        <v>1987166372.133805</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1548410611767412</v>
+        <v>0.1844893750687328</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04436998837347345</v>
+        <v>0.04448288024657823</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153315232.341361</v>
+        <v>1249430811.873193</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08182256882231509</v>
+        <v>0.1156335373191424</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02035582030092132</v>
+        <v>0.02814659100517745</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1116274380.017004</v>
+        <v>820594666.390005</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0741068084136242</v>
+        <v>0.1009397504831749</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04296748014725985</v>
+        <v>0.04157112829734242</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2213280988.919817</v>
+        <v>2115694657.881417</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1236616086535591</v>
+        <v>0.1337033094161168</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02755832920457918</v>
+        <v>0.01742958875208376</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1912167261.093045</v>
+        <v>1927788422.279934</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1044250132477826</v>
+        <v>0.07312822533792489</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04023935636792191</v>
+        <v>0.03462930056650251</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1477015139.973545</v>
+        <v>1659850857.244466</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08868503058107539</v>
+        <v>0.08741835338265035</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02593053051290944</v>
+        <v>0.02660282723549379</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2058280785.250109</v>
+        <v>1560418486.014704</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1571154766542774</v>
+        <v>0.1439259413780341</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02755843935975298</v>
+        <v>0.02886247644655101</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1350660064.643616</v>
+        <v>1744458139.869035</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1035900309088515</v>
+        <v>0.1525101177008732</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05282963129532178</v>
+        <v>0.04470930662115606</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2391720645.550399</v>
+        <v>2089493317.253781</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1140670056597768</v>
+        <v>0.1569967776102686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04157693394172766</v>
+        <v>0.03214259105196981</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2830186486.493918</v>
+        <v>3898163316.764678</v>
       </c>
       <c r="F42" t="n">
-        <v>0.110334881395571</v>
+        <v>0.09304398355418816</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03621142722086344</v>
+        <v>0.03416944862541251</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>132</v>
+      </c>
+      <c r="J42" t="n">
+        <v>321</v>
+      </c>
+      <c r="K42" t="n">
+        <v>81.48877378865836</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2852585098.19172</v>
+        <v>2963578341.836082</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2015637168154624</v>
+        <v>0.1619560772843267</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01750257748309487</v>
+        <v>0.01884013763419187</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1792131179.241956</v>
+        <v>2117873535.194643</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08173349034717012</v>
+        <v>0.06416007319820594</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03715360028411171</v>
+        <v>0.03199793115523503</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2481331620.522306</v>
+        <v>1674928628.663311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1925669823320226</v>
+        <v>0.1387305289478291</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03423130379835141</v>
+        <v>0.03419124290562776</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5307995226.945326</v>
+        <v>5646960839.151502</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1495183864690811</v>
+        <v>0.1406547707511582</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05822797358118203</v>
+        <v>0.05834474512405254</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>192</v>
+      </c>
+      <c r="J46" t="n">
+        <v>320</v>
+      </c>
+      <c r="K46" t="n">
+        <v>75.35605434624547</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2094,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3990082684.245176</v>
+        <v>3577771544.347914</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1339261592132976</v>
+        <v>0.1419900887630098</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04908005319168521</v>
+        <v>0.03775652307038611</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>143</v>
+      </c>
+      <c r="J47" t="n">
+        <v>320</v>
+      </c>
+      <c r="K47" t="n">
+        <v>49.70933508785652</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4273551588.04924</v>
+        <v>2929088421.850625</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07143338348129387</v>
+        <v>0.1070893233827723</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0260554176553054</v>
+        <v>0.0350937952914894</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>160</v>
+      </c>
+      <c r="J48" t="n">
+        <v>319</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1745700242.249379</v>
+        <v>1329917745.208221</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1741172411968107</v>
+        <v>0.1412037427498761</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03878110514155349</v>
+        <v>0.03536570143921478</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2577048515.642632</v>
+        <v>3801528747.006086</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1346553288274354</v>
+        <v>0.1121015616575226</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04532032358917421</v>
+        <v>0.05296040249216652</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>105</v>
+      </c>
+      <c r="J50" t="n">
+        <v>320</v>
+      </c>
+      <c r="K50" t="n">
+        <v>69.37701672931655</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1484487083.734045</v>
+        <v>976429777.1357763</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1693672888268387</v>
+        <v>0.1565009292921987</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05296569911099484</v>
+        <v>0.04770958932306945</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4810726193.578567</v>
+        <v>4608395434.39725</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1386542635997153</v>
+        <v>0.108192695137161</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04801821058454394</v>
+        <v>0.04304627240117589</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>194</v>
+      </c>
+      <c r="J52" t="n">
+        <v>321</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2728281004.575849</v>
+        <v>3551625320.01183</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1816829468449714</v>
+        <v>0.2021450004000441</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02641530077869325</v>
+        <v>0.03208488569473664</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>46</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3425498546.953046</v>
+        <v>3618405694.441048</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1456907521013532</v>
+        <v>0.133205031728512</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04219559835315809</v>
+        <v>0.04667713270992896</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>169</v>
+      </c>
+      <c r="J54" t="n">
+        <v>320</v>
+      </c>
+      <c r="K54" t="n">
+        <v>58.94700738278078</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3780339056.216018</v>
+        <v>3804325670.622485</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1955797579396611</v>
+        <v>0.2039952697189342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02110914243822905</v>
+        <v>0.02405819527020814</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>149</v>
+      </c>
+      <c r="J55" t="n">
+        <v>321</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1647851115.577499</v>
+        <v>1442827164.395544</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1362032088495226</v>
+        <v>0.1426891908843456</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03926142812837749</v>
+        <v>0.04053975586457709</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2860175307.257354</v>
+        <v>3158388832.836324</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1121683011984788</v>
+        <v>0.142965105098726</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02503717767001175</v>
+        <v>0.02500527976199332</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>132</v>
+      </c>
+      <c r="J57" t="n">
+        <v>319</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1874008768.878371</v>
+        <v>1608601992.558179</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1293994142140482</v>
+        <v>0.1452342731074625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0305133252729381</v>
+        <v>0.0269399438399024</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3637612483.782037</v>
+        <v>5079098616.021171</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1129199445175865</v>
+        <v>0.1104320352184591</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03810709513827666</v>
+        <v>0.03287726042094512</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>155</v>
+      </c>
+      <c r="J59" t="n">
+        <v>320</v>
+      </c>
+      <c r="K59" t="n">
+        <v>72.90864188421789</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2652569975.306894</v>
+        <v>2779402389.672511</v>
       </c>
       <c r="F60" t="n">
-        <v>0.181657926564929</v>
+        <v>0.1950567507866855</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02228440372595158</v>
+        <v>0.02320463491647611</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2515511443.541103</v>
+        <v>2102167258.17253</v>
       </c>
       <c r="F61" t="n">
-        <v>0.113318797732051</v>
+        <v>0.159495817943093</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02998763890983058</v>
+        <v>0.03191701339885424</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2101372709.184778</v>
+        <v>2100123868.889123</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1173811027003482</v>
+        <v>0.1771677201236242</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04521540787427471</v>
+        <v>0.03967460037848881</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5036714103.319092</v>
+        <v>3564376361.646259</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1041322614562632</v>
+        <v>0.1001495783526012</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04530578408479156</v>
+        <v>0.04271149360721301</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>156</v>
+      </c>
+      <c r="J63" t="n">
+        <v>320</v>
+      </c>
+      <c r="K63" t="n">
+        <v>57.12235031991443</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4624708145.724188</v>
+        <v>3492629120.287151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1392125710386474</v>
+        <v>0.1289159061326703</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03244490205687037</v>
+        <v>0.03260621065736579</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>159</v>
+      </c>
+      <c r="J64" t="n">
+        <v>320</v>
+      </c>
+      <c r="K64" t="n">
+        <v>54.92658466127349</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5674479905.904721</v>
+        <v>5848095897.935018</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1435995251129924</v>
+        <v>0.1403282109914508</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02035402995538477</v>
+        <v>0.02961699828360208</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>252</v>
+      </c>
+      <c r="J65" t="n">
+        <v>321</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4484715835.752676</v>
+        <v>4579150907.633682</v>
       </c>
       <c r="F66" t="n">
-        <v>0.141183457086972</v>
+        <v>0.1569391158145498</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04840191848660376</v>
+        <v>0.04564864084515604</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>158</v>
+      </c>
+      <c r="J66" t="n">
+        <v>321</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2143313670.05266</v>
+        <v>2255111418.965075</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08562577160355855</v>
+        <v>0.07451819327315913</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04047413707408323</v>
+        <v>0.03595578509372391</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4742447857.620924</v>
+        <v>5748019714.681094</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1028327759334597</v>
+        <v>0.1287114033750461</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03708214810826331</v>
+        <v>0.05001024269541038</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>173</v>
+      </c>
+      <c r="J68" t="n">
+        <v>321</v>
+      </c>
+      <c r="K68" t="n">
+        <v>76.04007138390519</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1579303809.390447</v>
+        <v>2260865682.327268</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1516665526368665</v>
+        <v>0.1302383970759455</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04421698482548365</v>
+        <v>0.05471255170284856</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3223753979.825621</v>
+        <v>3384246828.323772</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019238926211699</v>
+        <v>0.06531968942535409</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03033832338664082</v>
+        <v>0.04239078128816153</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>321</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5094242861.920017</v>
+        <v>5121693531.563323</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1370923233793367</v>
+        <v>0.1621233111358236</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02566391476642181</v>
+        <v>0.02281711809751976</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>237</v>
+      </c>
+      <c r="J71" t="n">
+        <v>321</v>
+      </c>
+      <c r="K71" t="n">
+        <v>75.78181648889945</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1796714354.060922</v>
+        <v>2192659335.776949</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09118136654273828</v>
+        <v>0.07596891743922722</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0422419237135206</v>
+        <v>0.03257053368433935</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3088413137.097383</v>
+        <v>2176997738.915677</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043819574808695</v>
+        <v>0.09092983953344851</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03738057785726861</v>
+        <v>0.04515750038937962</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2921303647.482529</v>
+        <v>3382022279.898987</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1690667723862938</v>
+        <v>0.1180127509887027</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02640273287067439</v>
+        <v>0.02502258743039814</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1545703226.361887</v>
+        <v>2003217555.265095</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1031758386970597</v>
+        <v>0.118946576203411</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02411058667838603</v>
+        <v>0.03447059150357051</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4617016258.017438</v>
+        <v>5319266983.000933</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08179084265035594</v>
+        <v>0.1014473215347441</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03080822811268034</v>
+        <v>0.03177999591443822</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>151</v>
+      </c>
+      <c r="J76" t="n">
+        <v>321</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1671540033.407851</v>
+        <v>2051088424.878811</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1814200515815529</v>
+        <v>0.1154348380116619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02945072660659979</v>
+        <v>0.02543570421959097</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3770208124.883774</v>
+        <v>4475008438.132968</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1067305046610432</v>
+        <v>0.1207369785527908</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04139747959825719</v>
+        <v>0.04498058406928213</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>158</v>
+      </c>
+      <c r="J78" t="n">
+        <v>321</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1820339938.068881</v>
+        <v>1882910790.59073</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1524470595865921</v>
+        <v>0.158641849508762</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03046400601892216</v>
+        <v>0.03853261235413945</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5361648438.217718</v>
+        <v>4065849469.04489</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08333838358006945</v>
+        <v>0.07104465345107805</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03354376062077808</v>
+        <v>0.03450450039254317</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>157</v>
+      </c>
+      <c r="J80" t="n">
+        <v>320</v>
+      </c>
+      <c r="K80" t="n">
+        <v>58.13143813813254</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3720609705.391497</v>
+        <v>3238145151.467978</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09444391712883868</v>
+        <v>0.1236075195889896</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02832200745279163</v>
+        <v>0.02581343943920919</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>148</v>
+      </c>
+      <c r="J81" t="n">
+        <v>319</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3825510569.576474</v>
+        <v>4329940768.706407</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2102237045888237</v>
+        <v>0.1499475770315317</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02367109906038753</v>
+        <v>0.02691967217261605</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>231</v>
+      </c>
+      <c r="J82" t="n">
+        <v>321</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1854352921.135633</v>
+        <v>2051707657.262196</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1209849696959459</v>
+        <v>0.1317259924307634</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04252239171472677</v>
+        <v>0.03638386638566771</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2243514395.587924</v>
+        <v>2097616468.276637</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09329807167200219</v>
+        <v>0.075032689830343</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03797859024431451</v>
+        <v>0.03380647423210303</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2439706737.985687</v>
+        <v>3080682591.393376</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1551947026749873</v>
+        <v>0.1360069588509333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03544213517967869</v>
+        <v>0.0367987583851345</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2013904369.598801</v>
+        <v>1809921723.610102</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1728810524915958</v>
+        <v>0.1046383492002857</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01981281413705361</v>
+        <v>0.02022606595922281</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>910987982.9489955</v>
+        <v>1181693731.180414</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1617772631271664</v>
+        <v>0.1438661189382268</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03473110631285599</v>
+        <v>0.03595857617977651</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2406507596.684879</v>
+        <v>3705014271.253702</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1329877803877357</v>
+        <v>0.1745096040113178</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03755452896553318</v>
+        <v>0.03994055679515084</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>44</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2456576875.399155</v>
+        <v>3096098456.664489</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1289865990030305</v>
+        <v>0.1416060553764129</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03499468510440986</v>
+        <v>0.03045090407659739</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1933941444.474993</v>
+        <v>1697477848.924976</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1116247106530645</v>
+        <v>0.1214979468005712</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04710433859386707</v>
+        <v>0.04194839443569214</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1926864679.593145</v>
+        <v>1652583792.829176</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1808601817976633</v>
+        <v>0.1385786315811339</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04692936613431347</v>
+        <v>0.05171571506658369</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2128032384.440744</v>
+        <v>2603582032.637974</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08092031686704979</v>
+        <v>0.07978505858245988</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04139995215488999</v>
+        <v>0.03945181465808241</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3603722613.162028</v>
+        <v>4714091234.490586</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1122414707499192</v>
+        <v>0.1290056495263605</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05363476528470675</v>
+        <v>0.03676064906120999</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>145</v>
+      </c>
+      <c r="J93" t="n">
+        <v>321</v>
+      </c>
+      <c r="K93" t="n">
+        <v>76.43671974416725</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2058100055.023048</v>
+        <v>1565405736.896508</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1016559446375732</v>
+        <v>0.1598468396545987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0312068815130358</v>
+        <v>0.03596877120085731</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3095897922.012252</v>
+        <v>3142673647.328683</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1063535775729493</v>
+        <v>0.08660792626900714</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04395518497887058</v>
+        <v>0.05195570865675582</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2395563053.521557</v>
+        <v>1877976944.743819</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1405737272251724</v>
+        <v>0.117633704411425</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03493400670696099</v>
+        <v>0.03891722799914973</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5172059073.447062</v>
+        <v>4929449773.188357</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1766179830444525</v>
+        <v>0.1688765816824767</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02260352326062857</v>
+        <v>0.02445399896278404</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>164</v>
+      </c>
+      <c r="J97" t="n">
+        <v>320</v>
+      </c>
+      <c r="K97" t="n">
+        <v>73.59269524479004</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2505740155.843833</v>
+        <v>2450377507.108863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1122562533081551</v>
+        <v>0.097241737380778</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02469149941893262</v>
+        <v>0.02617558336463594</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>317</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2575119022.226583</v>
+        <v>3302575623.473436</v>
       </c>
       <c r="F99" t="n">
-        <v>0.135672058217122</v>
+        <v>0.1433915913211609</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03440359535748323</v>
+        <v>0.03215177099786893</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3825128594.875121</v>
+        <v>4342244512.540472</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1102470618291226</v>
+        <v>0.1633303434131727</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02083099091264605</v>
+        <v>0.02453812790439813</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>141</v>
+      </c>
+      <c r="J100" t="n">
+        <v>321</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3300660263.971941</v>
+        <v>2253147170.289695</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1577717895349184</v>
+        <v>0.19113284578183</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03909696513297724</v>
+        <v>0.0486285015909898</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
